--- a/project_implementation/csvs/uni_b_40m_euc_k5/k_ates.xlsx
+++ b/project_implementation/csvs/uni_b_40m_euc_k5/k_ates.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashk\MyFiles\Semester 8\FYP\code\project_implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashk\MyFiles\Semester 8\FYP\code\project_implementation\csvs\uni_b_40m_euc_k5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8EE16726-6934-4BE3-95DA-1AC44655C355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCF6AB2-03BD-4D9B-89CE-0BD182FB47AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k_ates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -820,7 +833,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -957,7 +970,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,6 +1150,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1298,9 +1317,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1655,11 +1675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="L268" sqref="L268"/>
+      <selection activeCell="L267" sqref="L267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12051,7 +12071,7 @@
         <f t="shared" si="26"/>
         <v>61.568627450980394</v>
       </c>
-      <c r="L267">
+      <c r="L267" s="2">
         <f t="shared" si="26"/>
         <v>66.274509803921575</v>
       </c>
